--- a/biology/Botanique/Artemisia_afra/Artemisia_afra.xlsx
+++ b/biology/Botanique/Artemisia_afra/Artemisia_afra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemisia afra est une espèce de plante à fleurs de la famille des Asteraceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve en Afrique, notamment en Afrique du Sud, Angola, Botswana, Burundi, Éthiopie, Kenya, Lesotho, Malawi, Mozambique, Namibie, Ouganda, République démocratique du Congo, Swaziland, Tanzanie, Tchad, Zambie et Zimbabwe.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle forme un petit buisson dont la taille varie entre 60 cm et 1 m.
 </t>
@@ -573,11 +589,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à son espèce « cousine » asiatique, Artemisia annua, Artemisia afra, ne contient pas d'artémisinine, la molécule qui sert de base aux traitements dits « ACT », pour soigner le paludisme.
-Son emploi dans le traitement préventif ou curatif du paludisme fait l'objet d'une mise en garde par OMS, au vu des risques de développement de résistances[1]. L'Académie de médecine française s'inquiète de la promotion de cette plante sans vertus prouvées[2].
-Une étude scientifique publiée en 2018 affirmait que la tisane d'Artemisia afra, tout comme la tisane d'Artemisia annua, constituait un traitement efficace contre le paludisme, plus efficace même que les traitements dits "ACT", préconisés par les autorités de santé. L'étude a cependant dû être rétractée pour divers problèmes mettant en cause aussi bien la fiabilité des données que le respect des règles éthiques[3],[4],[5].
+Son emploi dans le traitement préventif ou curatif du paludisme fait l'objet d'une mise en garde par OMS, au vu des risques de développement de résistances. L'Académie de médecine française s'inquiète de la promotion de cette plante sans vertus prouvées.
+Une étude scientifique publiée en 2018 affirmait que la tisane d'Artemisia afra, tout comme la tisane d'Artemisia annua, constituait un traitement efficace contre le paludisme, plus efficace même que les traitements dits "ACT", préconisés par les autorités de santé. L'étude a cependant dû être rétractée pour divers problèmes mettant en cause aussi bien la fiabilité des données que le respect des règles éthiques.
 </t>
         </is>
       </c>
